--- a/data/chart.xlsx
+++ b/data/chart.xlsx
@@ -498,25 +498,25 @@
         <v>0.3</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="J2" t="n">
-        <v>0.25</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2580645161290323</v>
+        <v>0.2790697674418605</v>
       </c>
     </row>
     <row r="3">
@@ -539,25 +539,25 @@
         <v>0.5</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>382</v>
       </c>
       <c r="G3" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H3" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="J3" t="n">
-        <v>0.25</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1739130434782609</v>
+        <v>0.1132075471698113</v>
       </c>
     </row>
     <row r="4">
@@ -580,25 +580,25 @@
         <v>0.7</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="G4" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="J4" t="n">
-        <v>0.125</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08163265306122448</v>
+        <v>0.09677419354838709</v>
       </c>
     </row>
     <row r="5">
@@ -621,25 +621,25 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="G5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H5" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04651162790697674</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="J5" t="n">
-        <v>0.125</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06779661016949153</v>
+        <v>0.02816901408450704</v>
       </c>
     </row>
     <row r="6">
@@ -662,25 +662,25 @@
         <v>1.3</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="G6" t="n">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="H6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0625</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="7">
@@ -703,25 +703,25 @@
         <v>1.5</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>1214</v>
+        <v>1196</v>
       </c>
       <c r="G7" t="n">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="J7" t="n">
-        <v>0.125</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="8">
@@ -744,25 +744,25 @@
         <v>1.7</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>1379</v>
+        <v>1367</v>
       </c>
       <c r="G8" t="n">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="H8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03174603174603174</v>
+        <v>0.0375</v>
       </c>
       <c r="J8" t="n">
-        <v>0.125</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05063291139240506</v>
+        <v>0.06060606060606061</v>
       </c>
     </row>
     <row r="9">
@@ -785,25 +785,25 @@
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="G9" t="n">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.0392156862745098</v>
       </c>
     </row>
     <row r="10">
@@ -826,25 +826,25 @@
         <v>0.3</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1875</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11">
@@ -867,25 +867,25 @@
         <v>0.5</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="G11" t="n">
+        <v>15</v>
+      </c>
+      <c r="H11" t="n">
         <v>17</v>
       </c>
-      <c r="H11" t="n">
-        <v>15</v>
-      </c>
       <c r="I11" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0625</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="12">
@@ -908,25 +908,25 @@
         <v>0.7</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="G12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.05714285714285714</v>
       </c>
     </row>
     <row r="13">
@@ -949,25 +949,25 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G13" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
     </row>
     <row r="14">
@@ -990,25 +990,25 @@
         <v>1.3</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="G14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.04444444444444445</v>
       </c>
     </row>
     <row r="15">
@@ -1031,25 +1031,25 @@
         <v>1.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>1252</v>
       </c>
       <c r="G15" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="16">
@@ -1072,25 +1072,25 @@
         <v>1.7</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>1414</v>
+        <v>1429</v>
       </c>
       <c r="G16" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.05714285714285714</v>
       </c>
     </row>
     <row r="17">
@@ -1113,25 +1113,25 @@
         <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>1672</v>
+        <v>1667</v>
       </c>
       <c r="G17" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>0.03773584905660377</v>
       </c>
     </row>
     <row r="18">
@@ -1154,25 +1154,25 @@
         <v>0.3</v>
       </c>
       <c r="E18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G18" t="n">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I18" t="n">
-        <v>0.06707317073170732</v>
+        <v>0.07514450867052024</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6875</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1222222222222222</v>
+        <v>0.1354166666666667</v>
       </c>
     </row>
     <row r="19">
@@ -1195,25 +1195,25 @@
         <v>0.5</v>
       </c>
       <c r="E19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="n">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="G19" t="n">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I19" t="n">
-        <v>0.03741496598639456</v>
+        <v>0.04210526315789474</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6875</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="K19" t="n">
-        <v>0.07096774193548387</v>
+        <v>0.07894736842105263</v>
       </c>
     </row>
     <row r="20">
@@ -1236,25 +1236,25 @@
         <v>0.7</v>
       </c>
       <c r="E20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F20" t="n">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="G20" t="n">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I20" t="n">
-        <v>0.02689486552567237</v>
+        <v>0.0325</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6875</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="K20" t="n">
-        <v>0.05176470588235294</v>
+        <v>0.06205250596658711</v>
       </c>
     </row>
     <row r="21">
@@ -1277,25 +1277,25 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F21" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="G21" t="n">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01824212271973466</v>
+        <v>0.02159468438538206</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6875</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="K21" t="n">
-        <v>0.03554119547657512</v>
+        <v>0.04186795491143317</v>
       </c>
     </row>
     <row r="22">
@@ -1318,25 +1318,25 @@
         <v>1.3</v>
       </c>
       <c r="E22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F22" t="n">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="G22" t="n">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01381909547738694</v>
+        <v>0.01653944020356234</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6875</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0270935960591133</v>
+        <v>0.03229813664596273</v>
       </c>
     </row>
     <row r="23">
@@ -1359,25 +1359,25 @@
         <v>1.5</v>
       </c>
       <c r="E23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F23" t="n">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="G23" t="n">
-        <v>899</v>
+        <v>881</v>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01208791208791209</v>
+        <v>0.0145413870246085</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6875</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="K23" t="n">
-        <v>0.02375809935205184</v>
+        <v>0.02847754654983571</v>
       </c>
     </row>
     <row r="24">
@@ -1400,25 +1400,25 @@
         <v>1.7</v>
       </c>
       <c r="E24" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F24" t="n">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="G24" t="n">
-        <v>1013</v>
+        <v>994</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0107421875</v>
+        <v>0.01290963257199603</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6875</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02115384615384616</v>
+        <v>0.0253411306042885</v>
       </c>
     </row>
     <row r="25">
@@ -1441,25 +1441,25 @@
         <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F25" t="n">
-        <v>487</v>
+        <v>526</v>
       </c>
       <c r="G25" t="n">
-        <v>1209</v>
+        <v>1174</v>
       </c>
       <c r="H25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>0.009016393442622951</v>
+        <v>0.0109519797809604</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6875</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01779935275080906</v>
+        <v>0.02155887230514096</v>
       </c>
     </row>
     <row r="26">
@@ -1482,25 +1482,25 @@
         <v>0.3</v>
       </c>
       <c r="E26" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F26" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G26" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H26" t="n">
         <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>0.07100591715976332</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="J26" t="n">
-        <v>0.75</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1297297297297297</v>
+        <v>0.160427807486631</v>
       </c>
     </row>
     <row r="27">
@@ -1523,25 +1523,25 @@
         <v>0.5</v>
       </c>
       <c r="E27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F27" t="n">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="G27" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I27" t="n">
-        <v>0.04104477611940299</v>
+        <v>0.04887218045112782</v>
       </c>
       <c r="J27" t="n">
-        <v>0.6875</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="K27" t="n">
-        <v>0.07746478873239436</v>
+        <v>0.0912280701754386</v>
       </c>
     </row>
     <row r="28">
@@ -1564,25 +1564,25 @@
         <v>0.7</v>
       </c>
       <c r="E28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F28" t="n">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="G28" t="n">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0267379679144385</v>
+        <v>0.0335195530726257</v>
       </c>
       <c r="J28" t="n">
-        <v>0.625</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="K28" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.0636604774535809</v>
       </c>
     </row>
     <row r="29">
@@ -1605,25 +1605,25 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F29" t="n">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="G29" t="n">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01830282861896839</v>
+        <v>0.02199661590524535</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6875</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="K29" t="n">
-        <v>0.03565640194489465</v>
+        <v>0.04262295081967213</v>
       </c>
     </row>
     <row r="30">
@@ -1646,25 +1646,25 @@
         <v>1.3</v>
       </c>
       <c r="E30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F30" t="n">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="G30" t="n">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01417525773195876</v>
+        <v>0.01703800786369594</v>
       </c>
       <c r="J30" t="n">
-        <v>0.6875</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="K30" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.03324808184143223</v>
       </c>
     </row>
     <row r="31">
@@ -1687,25 +1687,25 @@
         <v>1.5</v>
       </c>
       <c r="E31" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F31" t="n">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="G31" t="n">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="H31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01261467889908257</v>
+        <v>0.01501154734411085</v>
       </c>
       <c r="J31" t="n">
-        <v>0.6875</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="K31" t="n">
-        <v>0.02477477477477477</v>
+        <v>0.02937853107344633</v>
       </c>
     </row>
     <row r="32">
@@ -1728,25 +1728,25 @@
         <v>1.7</v>
       </c>
       <c r="E32" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F32" t="n">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="G32" t="n">
-        <v>959</v>
+        <v>943</v>
       </c>
       <c r="H32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I32" t="n">
-        <v>0.01134020618556701</v>
+        <v>0.01359832635983264</v>
       </c>
       <c r="J32" t="n">
-        <v>0.6875</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="K32" t="n">
-        <v>0.02231237322515213</v>
+        <v>0.02666666666666667</v>
       </c>
     </row>
     <row r="33">
@@ -1769,25 +1769,25 @@
         <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F33" t="n">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="G33" t="n">
-        <v>1135</v>
+        <v>1126</v>
       </c>
       <c r="H33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I33" t="n">
-        <v>0.009598603839441536</v>
+        <v>0.01141352063213345</v>
       </c>
       <c r="J33" t="n">
-        <v>0.6875</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0189328743545611</v>
+        <v>0.02245250431778929</v>
       </c>
     </row>
     <row r="34">
@@ -1810,25 +1810,25 @@
         <v>0.3</v>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G34" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="H34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I34" t="n">
-        <v>0.05084745762711865</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1875</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="K34" t="n">
-        <v>0.08</v>
+        <v>0.09195402298850575</v>
       </c>
     </row>
     <row r="35">
@@ -1851,25 +1851,25 @@
         <v>0.5</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F35" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G35" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I35" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1875</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="K35" t="n">
-        <v>0.05660377358490566</v>
+        <v>0.07079646017699115</v>
       </c>
     </row>
     <row r="36">
@@ -1892,25 +1892,25 @@
         <v>0.7</v>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F36" t="n">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="G36" t="n">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="H36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I36" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1875</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="K36" t="n">
-        <v>0.04838709677419355</v>
+        <v>0.05970149253731343</v>
       </c>
     </row>
     <row r="37">
@@ -1933,25 +1933,25 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F37" t="n">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G37" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02752293577981652</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1875</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="K37" t="n">
-        <v>0.048</v>
+        <v>0.05970149253731343</v>
       </c>
     </row>
     <row r="38">
@@ -1977,22 +1977,22 @@
         <v>3</v>
       </c>
       <c r="F38" t="n">
-        <v>929</v>
+        <v>985</v>
       </c>
       <c r="G38" t="n">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="H38" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I38" t="n">
-        <v>0.01764705882352941</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1875</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="K38" t="n">
-        <v>0.03225806451612903</v>
+        <v>0.04411764705882353</v>
       </c>
     </row>
     <row r="39">
@@ -2018,22 +2018,22 @@
         <v>5</v>
       </c>
       <c r="F39" t="n">
-        <v>1094</v>
+        <v>1128</v>
       </c>
       <c r="G39" t="n">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="H39" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I39" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.03401360544217687</v>
       </c>
       <c r="J39" t="n">
-        <v>0.3125</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="K39" t="n">
-        <v>0.05235602094240838</v>
+        <v>0.06024096385542169</v>
       </c>
     </row>
     <row r="40">
@@ -2059,22 +2059,22 @@
         <v>4</v>
       </c>
       <c r="F40" t="n">
-        <v>1274</v>
+        <v>1298</v>
       </c>
       <c r="G40" t="n">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="H40" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I40" t="n">
-        <v>0.02352941176470588</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="J40" t="n">
-        <v>0.25</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="K40" t="n">
-        <v>0.04301075268817205</v>
+        <v>0.04733727810650887</v>
       </c>
     </row>
     <row r="41">
@@ -2100,22 +2100,22 @@
         <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>1565</v>
+        <v>1533</v>
       </c>
       <c r="G41" t="n">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H41" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I41" t="n">
-        <v>0.02238805970149254</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1875</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="K41" t="n">
-        <v>0.04</v>
+        <v>0.03174603174603174</v>
       </c>
     </row>
     <row r="42">
@@ -2144,19 +2144,19 @@
         <v>238</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H42" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I42" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0625</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K42" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="43">
@@ -2182,13 +2182,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2223,13 +2223,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -2264,13 +2264,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -2305,13 +2305,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -2346,13 +2346,13 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>1264</v>
+        <v>1270</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -2387,13 +2387,13 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>1440</v>
+        <v>1444</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -2428,13 +2428,13 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>1696</v>
+        <v>1700</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2469,13 +2469,13 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2510,13 +2510,13 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H51" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2551,13 +2551,13 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="G52" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H52" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2592,10 +2592,10 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G53" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H53" t="n">
         <v>6</v>
@@ -2633,13 +2633,13 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G54" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H54" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -2674,10 +2674,10 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>671</v>
+        <v>688</v>
       </c>
       <c r="G55" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H55" t="n">
         <v>8</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>790</v>
+        <v>816</v>
       </c>
       <c r="G56" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -2756,10 +2756,10 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="G57" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H57" t="n">
         <v>8</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -2920,13 +2920,13 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -3084,13 +3084,13 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>1049</v>
+        <v>1058</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -3125,22 +3125,22 @@
         <v>4</v>
       </c>
       <c r="F66" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G66" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H66" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I66" t="n">
-        <v>0.1</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="J66" t="n">
-        <v>0.25</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="K66" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1403508771929824</v>
       </c>
     </row>
     <row r="67">
@@ -3166,22 +3166,22 @@
         <v>4</v>
       </c>
       <c r="F67" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G67" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H67" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I67" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="J67" t="n">
-        <v>0.25</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="K67" t="n">
-        <v>0.08</v>
+        <v>0.0761904761904762</v>
       </c>
     </row>
     <row r="68">
@@ -3204,25 +3204,25 @@
         <v>0.7</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F68" t="n">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="G68" t="n">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="H68" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I68" t="n">
-        <v>0.01754385964912281</v>
+        <v>0.02758620689655172</v>
       </c>
       <c r="J68" t="n">
-        <v>0.125</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="K68" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.04878048780487805</v>
       </c>
     </row>
     <row r="69">
@@ -3248,22 +3248,22 @@
         <v>4</v>
       </c>
       <c r="F69" t="n">
-        <v>624</v>
+        <v>647</v>
       </c>
       <c r="G69" t="n">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="H69" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I69" t="n">
-        <v>0.01886792452830189</v>
+        <v>0.02051282051282051</v>
       </c>
       <c r="J69" t="n">
-        <v>0.25</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="K69" t="n">
-        <v>0.03508771929824561</v>
+        <v>0.03738317757009346</v>
       </c>
     </row>
     <row r="70">
@@ -3289,22 +3289,22 @@
         <v>4</v>
       </c>
       <c r="F70" t="n">
-        <v>817</v>
+        <v>845</v>
       </c>
       <c r="G70" t="n">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="H70" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I70" t="n">
-        <v>0.01413427561837456</v>
+        <v>0.01550387596899225</v>
       </c>
       <c r="J70" t="n">
-        <v>0.25</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="K70" t="n">
-        <v>0.02675585284280936</v>
+        <v>0.02888086642599278</v>
       </c>
     </row>
     <row r="71">
@@ -3330,22 +3330,22 @@
         <v>4</v>
       </c>
       <c r="F71" t="n">
-        <v>892</v>
+        <v>968</v>
       </c>
       <c r="G71" t="n">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="H71" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I71" t="n">
-        <v>0.01063829787234043</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="J71" t="n">
-        <v>0.25</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="K71" t="n">
-        <v>0.02040816326530612</v>
+        <v>0.02461538461538462</v>
       </c>
     </row>
     <row r="72">
@@ -3371,22 +3371,22 @@
         <v>3</v>
       </c>
       <c r="F72" t="n">
-        <v>1036</v>
+        <v>1050</v>
       </c>
       <c r="G72" t="n">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="H72" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I72" t="n">
-        <v>0.007371007371007371</v>
+        <v>0.007556675062972292</v>
       </c>
       <c r="J72" t="n">
-        <v>0.1875</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="K72" t="n">
-        <v>0.01418439716312057</v>
+        <v>0.01442307692307692</v>
       </c>
     </row>
     <row r="73">
@@ -3412,22 +3412,22 @@
         <v>3</v>
       </c>
       <c r="F73" t="n">
-        <v>1184</v>
+        <v>1237</v>
       </c>
       <c r="G73" t="n">
-        <v>512</v>
+        <v>463</v>
       </c>
       <c r="H73" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I73" t="n">
-        <v>0.005825242718446602</v>
+        <v>0.006437768240343348</v>
       </c>
       <c r="J73" t="n">
-        <v>0.1875</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="K73" t="n">
-        <v>0.01129943502824859</v>
+        <v>0.01237113402061856</v>
       </c>
     </row>
     <row r="74">
@@ -3453,22 +3453,22 @@
         <v>3</v>
       </c>
       <c r="F74" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I74" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="J74" t="n">
-        <v>0.1875</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="K74" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2608695652173913</v>
       </c>
     </row>
     <row r="75">
@@ -3494,13 +3494,13 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -3535,13 +3535,13 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H76" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -3576,13 +3576,13 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -3617,13 +3617,13 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -3658,13 +3658,13 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>1264</v>
+        <v>1270</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -3699,13 +3699,13 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>1440</v>
+        <v>1444</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -3740,13 +3740,13 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>1696</v>
+        <v>1700</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
